--- a/Code/Results/Cases/Case_8_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8015353632866322</v>
+        <v>0.7984277543312714</v>
       </c>
       <c r="C2">
-        <v>0.1488933533829169</v>
+        <v>0.1725254376836602</v>
       </c>
       <c r="D2">
-        <v>0.1482214732454707</v>
+        <v>0.1616417399177266</v>
       </c>
       <c r="E2">
-        <v>0.1059024464740084</v>
+        <v>0.1130033018339596</v>
       </c>
       <c r="F2">
-        <v>0.8366703928465427</v>
+        <v>0.7505318341066172</v>
       </c>
       <c r="G2">
-        <v>0.0008264757434914181</v>
+        <v>0.0207908682729534</v>
       </c>
       <c r="H2">
-        <v>0.0062601099545887</v>
+        <v>0.003898196876874094</v>
       </c>
       <c r="I2">
-        <v>0.006384409198589402</v>
+        <v>0.002920535071107011</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4151250396898938</v>
+        <v>0.3467815607834837</v>
       </c>
       <c r="L2">
-        <v>0.1105731514644432</v>
+        <v>0.1651758627178879</v>
       </c>
       <c r="M2">
-        <v>0.9007132224111558</v>
+        <v>0.09983788570132823</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1151975821079461</v>
       </c>
       <c r="O2">
-        <v>0.3215998952914489</v>
+        <v>0.935686773927074</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.015106821073786</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3296080891395903</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.726858513067725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6989156733390303</v>
+        <v>0.6997989231186352</v>
       </c>
       <c r="C3">
-        <v>0.1306291039596346</v>
+        <v>0.1491237697326682</v>
       </c>
       <c r="D3">
-        <v>0.1311963612538705</v>
+        <v>0.1436900527223628</v>
       </c>
       <c r="E3">
-        <v>0.09541943336159875</v>
+        <v>0.1026927880969488</v>
       </c>
       <c r="F3">
-        <v>0.8113817789059254</v>
+        <v>0.7279335156150992</v>
       </c>
       <c r="G3">
-        <v>0.0008292471362962528</v>
+        <v>0.02459299160305062</v>
       </c>
       <c r="H3">
-        <v>0.008489390485876214</v>
+        <v>0.005509904243979791</v>
       </c>
       <c r="I3">
-        <v>0.008318277285049636</v>
+        <v>0.003927177453839192</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4174390691913423</v>
+        <v>0.3499696797777965</v>
       </c>
       <c r="L3">
-        <v>0.1011550492210489</v>
+        <v>0.1699658546176259</v>
       </c>
       <c r="M3">
-        <v>0.7863553004626169</v>
+        <v>0.09897587600317515</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1065039312753981</v>
       </c>
       <c r="O3">
-        <v>0.2806633588316814</v>
+        <v>0.817326121581857</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.990155749010427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2872398691350426</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.70520634380533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6356685336108967</v>
+        <v>0.6388962369227329</v>
       </c>
       <c r="C4">
-        <v>0.1195758454920792</v>
+        <v>0.1350057474532491</v>
       </c>
       <c r="D4">
-        <v>0.1207981137729917</v>
+        <v>0.1327543407822418</v>
       </c>
       <c r="E4">
-        <v>0.08898172204595767</v>
+        <v>0.09636571093993496</v>
       </c>
       <c r="F4">
-        <v>0.7963014799850399</v>
+        <v>0.7142796570821162</v>
       </c>
       <c r="G4">
-        <v>0.0008310099992612221</v>
+        <v>0.0271749725237419</v>
       </c>
       <c r="H4">
-        <v>0.01008634769118782</v>
+        <v>0.006682626135225633</v>
       </c>
       <c r="I4">
-        <v>0.00972175322299984</v>
+        <v>0.00469857806171925</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4190671286801049</v>
+        <v>0.3520065641509369</v>
       </c>
       <c r="L4">
-        <v>0.09533388197402815</v>
+        <v>0.1729902991669086</v>
       </c>
       <c r="M4">
-        <v>0.7161629818810411</v>
+        <v>0.09892944731415909</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1011218569193559</v>
       </c>
       <c r="O4">
-        <v>0.2555627383326282</v>
+        <v>0.7446710111120325</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.976149296930672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2612612311485663</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.692492088398581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6095116859787311</v>
+        <v>0.6136809563571148</v>
       </c>
       <c r="C5">
-        <v>0.1155010606913294</v>
+        <v>0.1297208916330277</v>
       </c>
       <c r="D5">
-        <v>0.1166837660652931</v>
+        <v>0.1284285593774683</v>
       </c>
       <c r="E5">
-        <v>0.08636956705188226</v>
+        <v>0.09379989476185457</v>
       </c>
       <c r="F5">
-        <v>0.7896007438727537</v>
+        <v>0.7081479411877467</v>
       </c>
       <c r="G5">
-        <v>0.0008317486092137739</v>
+        <v>0.02829463876468497</v>
       </c>
       <c r="H5">
-        <v>0.01079541633495786</v>
+        <v>0.007207031187517948</v>
       </c>
       <c r="I5">
-        <v>0.01043019148189694</v>
+        <v>0.005142038422611073</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4193381033492116</v>
+        <v>0.3524628450840943</v>
       </c>
       <c r="L5">
-        <v>0.09291577125163997</v>
+        <v>0.1740445839146609</v>
       </c>
       <c r="M5">
-        <v>0.6878754960168578</v>
+        <v>0.0989352396605625</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09888276430469034</v>
       </c>
       <c r="O5">
-        <v>0.2454429076870923</v>
+        <v>0.7153716871929987</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.968870143602473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.250781989699302</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.685710249493795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6047717348582751</v>
+        <v>0.6091100196886146</v>
       </c>
       <c r="C6">
-        <v>0.1153080027379332</v>
+        <v>0.1293484436459096</v>
       </c>
       <c r="D6">
-        <v>0.1161365330508346</v>
+        <v>0.1278461698797173</v>
       </c>
       <c r="E6">
-        <v>0.08595082335040161</v>
+        <v>0.09338882264749415</v>
       </c>
       <c r="F6">
-        <v>0.7876837093383244</v>
+        <v>0.7063750679929157</v>
       </c>
       <c r="G6">
-        <v>0.000831877873936161</v>
+        <v>0.02849308565903363</v>
       </c>
       <c r="H6">
-        <v>0.01092009345612623</v>
+        <v>0.00729935056568376</v>
       </c>
       <c r="I6">
-        <v>0.01066104033063819</v>
+        <v>0.005339083767164077</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4188452657784936</v>
+        <v>0.3520607417263406</v>
       </c>
       <c r="L6">
-        <v>0.09247010880234541</v>
+        <v>0.1739788045764179</v>
       </c>
       <c r="M6">
-        <v>0.683565618754443</v>
+        <v>0.09882526963514415</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.0984683835980249</v>
       </c>
       <c r="O6">
-        <v>0.2438882843270598</v>
+        <v>0.7108834333440939</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.96537129249333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2491648898069947</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.68246891654961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6342394764622838</v>
+        <v>0.6379164066931367</v>
       </c>
       <c r="C7">
-        <v>0.1208371336098821</v>
+        <v>0.1355629903503086</v>
       </c>
       <c r="D7">
-        <v>0.1211124551508505</v>
+        <v>0.1337938401587877</v>
       </c>
       <c r="E7">
-        <v>0.08898792061546246</v>
+        <v>0.09650763236740545</v>
       </c>
       <c r="F7">
-        <v>0.793998975620994</v>
+        <v>0.7084777312606505</v>
       </c>
       <c r="G7">
-        <v>0.0008310350865657985</v>
+        <v>0.0276604175193369</v>
       </c>
       <c r="H7">
-        <v>0.01010505726445721</v>
+        <v>0.006709709173447764</v>
       </c>
       <c r="I7">
-        <v>0.01001513604971382</v>
+        <v>0.005030159459689543</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.41759634185442</v>
+        <v>0.3491017721453566</v>
       </c>
       <c r="L7">
-        <v>0.09518264834314749</v>
+        <v>0.171577294867614</v>
       </c>
       <c r="M7">
-        <v>0.7168422996337398</v>
+        <v>0.09816741052041067</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1008413478646162</v>
       </c>
       <c r="O7">
-        <v>0.255769443648667</v>
+        <v>0.7446062493578154</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.969753759560291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2615131003699389</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.676324479036197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7647604043870615</v>
+        <v>0.7644435154740847</v>
       </c>
       <c r="C8">
-        <v>0.1443160585488243</v>
+        <v>0.1637265864259518</v>
       </c>
       <c r="D8">
-        <v>0.1428313871240192</v>
+        <v>0.158379464399232</v>
       </c>
       <c r="E8">
-        <v>0.102343430927661</v>
+        <v>0.1099605411492277</v>
       </c>
       <c r="F8">
-        <v>0.8249428414374904</v>
+        <v>0.7279993992433873</v>
       </c>
       <c r="G8">
-        <v>0.0008274375021544584</v>
+        <v>0.02421442613914593</v>
       </c>
       <c r="H8">
-        <v>0.006989831633048282</v>
+        <v>0.004455750029054073</v>
       </c>
       <c r="I8">
-        <v>0.007345715508875195</v>
+        <v>0.003646309743310816</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.413946526295657</v>
+        <v>0.341005542150782</v>
       </c>
       <c r="L8">
-        <v>0.107176785867253</v>
+        <v>0.1637368200769238</v>
       </c>
       <c r="M8">
-        <v>0.8626900252015162</v>
+        <v>0.09735626556188848</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1116123493089631</v>
       </c>
       <c r="O8">
-        <v>0.3079333013542609</v>
+        <v>0.8938897657930909</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.997949673943509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3156279295767135</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.678169241041559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.020899864482686</v>
+        <v>1.010322569382453</v>
       </c>
       <c r="C9">
-        <v>0.1894018478594433</v>
+        <v>0.2212721361691479</v>
       </c>
       <c r="D9">
-        <v>0.1852531621100724</v>
+        <v>0.2040043249266859</v>
       </c>
       <c r="E9">
-        <v>0.1284859723212968</v>
+        <v>0.1358298770944408</v>
       </c>
       <c r="F9">
-        <v>0.8933257469203681</v>
+        <v>0.785035128123674</v>
       </c>
       <c r="G9">
-        <v>0.0008208350921339626</v>
+        <v>0.01641073014822947</v>
       </c>
       <c r="H9">
-        <v>0.002776321328755493</v>
+        <v>0.001507300028818492</v>
       </c>
       <c r="I9">
-        <v>0.003486355958119525</v>
+        <v>0.001682822273786577</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4111087403598184</v>
+        <v>0.3338459782687089</v>
       </c>
       <c r="L9">
-        <v>0.1306384099254032</v>
+        <v>0.152879027564552</v>
       </c>
       <c r="M9">
-        <v>1.147256978475809</v>
+        <v>0.1018082491099417</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1331027120401274</v>
       </c>
       <c r="O9">
-        <v>0.4099930207589395</v>
+        <v>1.187661166980263</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.075406966853961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4213012372046308</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.733969497989477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.2104543649493</v>
+        <v>1.194608103173692</v>
       </c>
       <c r="C10">
-        <v>0.2235951818653916</v>
+        <v>0.2597623296877032</v>
       </c>
       <c r="D10">
-        <v>0.2123788474573871</v>
+        <v>0.2377176069528417</v>
       </c>
       <c r="E10">
-        <v>0.1416153807234082</v>
+        <v>0.1494879448717619</v>
       </c>
       <c r="F10">
-        <v>0.9309639889490953</v>
+        <v>0.7946735495185564</v>
       </c>
       <c r="G10">
-        <v>0.0008163567498929106</v>
+        <v>0.02007979436754859</v>
       </c>
       <c r="H10">
-        <v>0.001254694232929676</v>
+        <v>0.0006383796903115524</v>
       </c>
       <c r="I10">
-        <v>0.0020445832520819</v>
+        <v>0.001288760610832718</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4046315923535779</v>
+        <v>0.3166105315796273</v>
       </c>
       <c r="L10">
-        <v>0.1399380530248422</v>
+        <v>0.1409997398977136</v>
       </c>
       <c r="M10">
-        <v>1.359030938525905</v>
+        <v>0.1023905344978644</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1403246317020717</v>
       </c>
       <c r="O10">
-        <v>0.4771741301714272</v>
+        <v>1.401266593469927</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.108557433444588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.4911295945416754</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.696768347361029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.319745311715366</v>
+        <v>1.310037210584454</v>
       </c>
       <c r="C11">
-        <v>0.2356859721632816</v>
+        <v>0.260100152225732</v>
       </c>
       <c r="D11">
-        <v>0.186531800469794</v>
+        <v>0.2186034005647599</v>
       </c>
       <c r="E11">
-        <v>0.09974532611447273</v>
+        <v>0.1078851371694789</v>
       </c>
       <c r="F11">
-        <v>0.8267921218873084</v>
+        <v>0.6646358297409449</v>
       </c>
       <c r="G11">
-        <v>0.0008150987577539092</v>
+        <v>0.05409177311205582</v>
       </c>
       <c r="H11">
-        <v>0.01986760944329546</v>
+        <v>0.01929157114578217</v>
       </c>
       <c r="I11">
-        <v>0.002249363356667367</v>
+        <v>0.00185234169976134</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3601135348838689</v>
+        <v>0.26770675214485</v>
       </c>
       <c r="L11">
-        <v>0.08868329761078542</v>
+        <v>0.1223317375219537</v>
       </c>
       <c r="M11">
-        <v>1.470304793611291</v>
+        <v>0.08547419321066485</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08886465313717551</v>
       </c>
       <c r="O11">
-        <v>0.437098656526608</v>
+        <v>1.501775156532347</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.87969672847683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4503178059931088</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.402927661635985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.374936434234286</v>
+        <v>1.370312106201652</v>
       </c>
       <c r="C12">
-        <v>0.2363615979777904</v>
+        <v>0.2527342930747665</v>
       </c>
       <c r="D12">
-        <v>0.1600713484108951</v>
+        <v>0.1930527078106934</v>
       </c>
       <c r="E12">
-        <v>0.06919429837390823</v>
+        <v>0.07662867526071437</v>
       </c>
       <c r="F12">
-        <v>0.7391560641925707</v>
+        <v>0.5761373147891149</v>
       </c>
       <c r="G12">
-        <v>0.0008148787405929853</v>
+        <v>0.07876237522143725</v>
       </c>
       <c r="H12">
-        <v>0.05870773264202711</v>
+        <v>0.05809875272083787</v>
       </c>
       <c r="I12">
-        <v>0.002184253930189506</v>
+        <v>0.001838036319705694</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3285436130653707</v>
+        <v>0.240665225142255</v>
       </c>
       <c r="L12">
-        <v>0.05996743329835752</v>
+        <v>0.113111136896535</v>
       </c>
       <c r="M12">
-        <v>1.518311570923288</v>
+        <v>0.07485476756891529</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06113123554138511</v>
       </c>
       <c r="O12">
-        <v>0.3904342507320564</v>
+        <v>1.542757763026515</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.698751176271713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4023383299170362</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.223162157507318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.389423580001647</v>
+        <v>1.388040601015348</v>
       </c>
       <c r="C13">
-        <v>0.2303702437335886</v>
+        <v>0.2430568761702006</v>
       </c>
       <c r="D13">
-        <v>0.1323509242397876</v>
+        <v>0.1607763485271789</v>
       </c>
       <c r="E13">
-        <v>0.04571387185644404</v>
+        <v>0.05180088738218025</v>
       </c>
       <c r="F13">
-        <v>0.655712190167975</v>
+        <v>0.513546942932777</v>
       </c>
       <c r="G13">
-        <v>0.0008154666654991305</v>
+        <v>0.07328265027007674</v>
       </c>
       <c r="H13">
-        <v>0.1147647431580623</v>
+        <v>0.1140463928378921</v>
       </c>
       <c r="I13">
-        <v>0.002273494534915876</v>
+        <v>0.001822386290922573</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3026644423418361</v>
+        <v>0.2264742935290229</v>
       </c>
       <c r="L13">
-        <v>0.04659922240227155</v>
+        <v>0.1088164173012371</v>
       </c>
       <c r="M13">
-        <v>1.521612041373885</v>
+        <v>0.06831440633218477</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04932693431000701</v>
       </c>
       <c r="O13">
-        <v>0.3368873761918962</v>
+        <v>1.54351532809045</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.533915680798302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3468533272249061</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.115730705771014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.380732659781813</v>
+        <v>1.380784437891322</v>
       </c>
       <c r="C14">
-        <v>0.223594751049248</v>
+        <v>0.2355114024442884</v>
       </c>
       <c r="D14">
-        <v>0.1128766475293475</v>
+        <v>0.1362740220151437</v>
       </c>
       <c r="E14">
-        <v>0.03360821750736775</v>
+        <v>0.03871546894577627</v>
       </c>
       <c r="F14">
-        <v>0.5997839769813211</v>
+        <v>0.4793075724268334</v>
       </c>
       <c r="G14">
-        <v>0.0008162436521259674</v>
+        <v>0.05693667998988872</v>
       </c>
       <c r="H14">
-        <v>0.1643963294807804</v>
+        <v>0.1635615239423629</v>
       </c>
       <c r="I14">
-        <v>0.002505985513012732</v>
+        <v>0.001917331512671261</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.28721688887304</v>
+        <v>0.2211053044531397</v>
       </c>
       <c r="L14">
-        <v>0.04631510002199946</v>
+        <v>0.1074118949951162</v>
       </c>
       <c r="M14">
-        <v>1.503997788113878</v>
+        <v>0.06527860539276631</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05010669084942343</v>
       </c>
       <c r="O14">
-        <v>0.297022788960966</v>
+        <v>1.52606008137704</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.426441326128042</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3054052972822774</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.066539005941451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.369244743999786</v>
+        <v>1.369306484276905</v>
       </c>
       <c r="C15">
-        <v>0.2210875351633916</v>
+        <v>0.2335606181314489</v>
       </c>
       <c r="D15">
-        <v>0.1077990879549162</v>
+        <v>0.1292189892173496</v>
       </c>
       <c r="E15">
-        <v>0.03120204183943365</v>
+        <v>0.03607007542164098</v>
       </c>
       <c r="F15">
-        <v>0.5859167064259196</v>
+        <v>0.4738076104760722</v>
       </c>
       <c r="G15">
-        <v>0.0008166208501958611</v>
+        <v>0.04862594205184934</v>
       </c>
       <c r="H15">
-        <v>0.1770368243312106</v>
+        <v>0.176145423473784</v>
       </c>
       <c r="I15">
-        <v>0.002729520497296356</v>
+        <v>0.002086994578727186</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2840151542216951</v>
+        <v>0.2212881258624613</v>
       </c>
       <c r="L15">
-        <v>0.04737252734782693</v>
+        <v>0.107597655242472</v>
       </c>
       <c r="M15">
-        <v>1.490525412790703</v>
+        <v>0.0650023429783122</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0514213893615878</v>
       </c>
       <c r="O15">
-        <v>0.2858093289244508</v>
+        <v>1.513451586482688</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.400881418170272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2936889868762904</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.063188176306113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.283054192974447</v>
+        <v>1.280513272466663</v>
       </c>
       <c r="C16">
-        <v>0.2084151349277334</v>
+        <v>0.2267911368870585</v>
       </c>
       <c r="D16">
-        <v>0.1027215694228545</v>
+        <v>0.1175575119503947</v>
       </c>
       <c r="E16">
-        <v>0.03100913023824159</v>
+        <v>0.03572180928702284</v>
       </c>
       <c r="F16">
-        <v>0.5862203126952608</v>
+        <v>0.5011895682689769</v>
       </c>
       <c r="G16">
-        <v>0.0008184202551015007</v>
+        <v>0.02091622306804375</v>
       </c>
       <c r="H16">
-        <v>0.1649912374334974</v>
+        <v>0.1637945513805619</v>
       </c>
       <c r="I16">
-        <v>0.003398972155339131</v>
+        <v>0.00237347516107711</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2910069110641569</v>
+        <v>0.2365357271890787</v>
       </c>
       <c r="L16">
-        <v>0.046387203841185</v>
+        <v>0.1133397634450075</v>
       </c>
       <c r="M16">
-        <v>1.398614972108277</v>
+        <v>0.06960001865433085</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05074548015271851</v>
       </c>
       <c r="O16">
-        <v>0.2695580596702811</v>
+        <v>1.428252523697665</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.416602502472756</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2763552160340126</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.149051137525134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.221727342599877</v>
+        <v>1.217246804135783</v>
       </c>
       <c r="C17">
-        <v>0.2023787340487075</v>
+        <v>0.2245611211402405</v>
       </c>
       <c r="D17">
-        <v>0.1089089101477612</v>
+        <v>0.1217396943871734</v>
       </c>
       <c r="E17">
-        <v>0.03650330486360076</v>
+        <v>0.0414260603684049</v>
       </c>
       <c r="F17">
-        <v>0.6155643740378522</v>
+        <v>0.5387717209734149</v>
       </c>
       <c r="G17">
-        <v>0.0008193939212183626</v>
+        <v>0.01529046564400982</v>
       </c>
       <c r="H17">
-        <v>0.127603685594778</v>
+        <v>0.1262303985030542</v>
       </c>
       <c r="I17">
-        <v>0.003836643344969026</v>
+        <v>0.00258321120983851</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3043791605824424</v>
+        <v>0.2511768339891329</v>
       </c>
       <c r="L17">
-        <v>0.04428318471640713</v>
+        <v>0.1190099789565195</v>
       </c>
       <c r="M17">
-        <v>1.337739932467827</v>
+        <v>0.07438544103471578</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04861920484719651</v>
       </c>
       <c r="O17">
-        <v>0.2778345452694921</v>
+        <v>1.371170716317749</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.484807416339152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2846681796629014</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.237837200434939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.176097977935797</v>
+        <v>1.169001129690514</v>
       </c>
       <c r="C18">
-        <v>0.2001461094037467</v>
+        <v>0.2264243135003596</v>
       </c>
       <c r="D18">
-        <v>0.126200115398305</v>
+        <v>0.1392706217481106</v>
       </c>
       <c r="E18">
-        <v>0.05131372427234915</v>
+        <v>0.05664629712220304</v>
       </c>
       <c r="F18">
-        <v>0.6773385627586279</v>
+        <v>0.5986995986470944</v>
       </c>
       <c r="G18">
-        <v>0.0008197117840656107</v>
+        <v>0.01396171926281786</v>
       </c>
       <c r="H18">
-        <v>0.0748047560181746</v>
+        <v>0.07339708109885379</v>
       </c>
       <c r="I18">
-        <v>0.003746585492304</v>
+        <v>0.002364289146817633</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3268726949870491</v>
+        <v>0.2704143968092456</v>
       </c>
       <c r="L18">
-        <v>0.04894989192952348</v>
+        <v>0.126374917416733</v>
       </c>
       <c r="M18">
-        <v>1.295713177116568</v>
+        <v>0.0812304302602147</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05298946416570782</v>
       </c>
       <c r="O18">
-        <v>0.309101720882488</v>
+        <v>1.332568941365821</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.615175167453927</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3168805778888952</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.361539977209205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.14463285512096</v>
+        <v>1.134305513564016</v>
       </c>
       <c r="C19">
-        <v>0.203684632077227</v>
+        <v>0.2348247561525767</v>
       </c>
       <c r="D19">
-        <v>0.1533202597317285</v>
+        <v>0.1680422804801367</v>
       </c>
       <c r="E19">
-        <v>0.0783716421921703</v>
+        <v>0.08427042213594405</v>
       </c>
       <c r="F19">
-        <v>0.762063960047989</v>
+        <v>0.6753082395589303</v>
       </c>
       <c r="G19">
-        <v>0.0008194486899846977</v>
+        <v>0.01335397534703908</v>
       </c>
       <c r="H19">
-        <v>0.02914119509637914</v>
+        <v>0.02785715764633068</v>
       </c>
       <c r="I19">
-        <v>0.003782662523531322</v>
+        <v>0.00247299721125227</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3551652244294843</v>
+        <v>0.2925214717866815</v>
       </c>
       <c r="L19">
-        <v>0.07053221529988818</v>
+        <v>0.1346691762994112</v>
       </c>
       <c r="M19">
-        <v>1.274210870278125</v>
+        <v>0.08950610097343592</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07395724953157412</v>
       </c>
       <c r="O19">
-        <v>0.3592777537072607</v>
+        <v>1.31453333779146</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.786008462813115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3687023971259578</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.50905289349997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.157373754735261</v>
+        <v>1.141636596952793</v>
       </c>
       <c r="C20">
-        <v>0.2187518526147585</v>
+        <v>0.256883952442152</v>
       </c>
       <c r="D20">
-        <v>0.206209823830406</v>
+        <v>0.2270707067179671</v>
       </c>
       <c r="E20">
-        <v>0.1380375124118167</v>
+        <v>0.1452593868811505</v>
       </c>
       <c r="F20">
-        <v>0.913566033881807</v>
+        <v>0.7979363334851044</v>
       </c>
       <c r="G20">
-        <v>0.0008175564725473872</v>
+        <v>0.01389834494460729</v>
       </c>
       <c r="H20">
-        <v>0.001564151396038937</v>
+        <v>0.0007790746953513228</v>
       </c>
       <c r="I20">
-        <v>0.003177594556288632</v>
+        <v>0.002297985782356626</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4016462592871655</v>
+        <v>0.3224438030682144</v>
       </c>
       <c r="L20">
-        <v>0.136811159824326</v>
+        <v>0.1444756449264197</v>
       </c>
       <c r="M20">
-        <v>1.30682136472231</v>
+        <v>0.1027004878448814</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1382275500600514</v>
       </c>
       <c r="O20">
-        <v>0.4602510328982063</v>
+        <v>1.351151723928126</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.079090046856948</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4732827703574571</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.722989481839846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.299023228304037</v>
+        <v>1.286345718732861</v>
       </c>
       <c r="C21">
-        <v>0.2455497776627595</v>
+        <v>0.2729627300736581</v>
       </c>
       <c r="D21">
-        <v>0.2340707260816259</v>
+        <v>0.2757096419802423</v>
       </c>
       <c r="E21">
-        <v>0.1576677434004523</v>
+        <v>0.1683283631070118</v>
       </c>
       <c r="F21">
-        <v>0.9667156871701224</v>
+        <v>0.7615247209694758</v>
       </c>
       <c r="G21">
-        <v>0.0008140579784991183</v>
+        <v>0.07478243072325341</v>
       </c>
       <c r="H21">
-        <v>0.0004410978150461986</v>
+        <v>0.0001362581783963535</v>
       </c>
       <c r="I21">
-        <v>0.002271609363881488</v>
+        <v>0.002086045980819407</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4055127684520485</v>
+        <v>0.2903459545858276</v>
       </c>
       <c r="L21">
-        <v>0.1560138504464135</v>
+        <v>0.1296274445391674</v>
       </c>
       <c r="M21">
-        <v>1.466742840061158</v>
+        <v>0.09545093528885218</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1531238614090284</v>
       </c>
       <c r="O21">
-        <v>0.5246895327042154</v>
+        <v>1.499130625058825</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.155050949367592</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5412560702652343</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.560906874721951</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.394374738758899</v>
+        <v>1.384710855181936</v>
       </c>
       <c r="C22">
-        <v>0.2612105644741121</v>
+        <v>0.2801128953110492</v>
       </c>
       <c r="D22">
-        <v>0.2495339230644475</v>
+        <v>0.3065614083717207</v>
       </c>
       <c r="E22">
-        <v>0.1673270023224518</v>
+        <v>0.1805759674074281</v>
       </c>
       <c r="F22">
-        <v>0.9976553795957557</v>
+        <v>0.7306413732959669</v>
       </c>
       <c r="G22">
-        <v>0.0008118489309625449</v>
+        <v>0.1632498742999999</v>
       </c>
       <c r="H22">
-        <v>0.000115271170261444</v>
+        <v>1.03705155889422E-05</v>
       </c>
       <c r="I22">
-        <v>0.001630055617184212</v>
+        <v>0.0017086146933325</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4076567120075687</v>
+        <v>0.2687994525608488</v>
       </c>
       <c r="L22">
-        <v>0.1647576859138695</v>
+        <v>0.120630439365268</v>
       </c>
       <c r="M22">
-        <v>1.570854358800887</v>
+        <v>0.09001804262228674</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1589712813634634</v>
       </c>
       <c r="O22">
-        <v>0.5622173668876229</v>
+        <v>1.593956972913162</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.199898752424502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5810603032596191</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.445134814025792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.344808802739209</v>
+        <v>1.332298172674797</v>
       </c>
       <c r="C23">
-        <v>0.2512128936310773</v>
+        <v>0.2766539953640859</v>
       </c>
       <c r="D23">
-        <v>0.2408240033227571</v>
+        <v>0.2873560356155025</v>
       </c>
       <c r="E23">
-        <v>0.1621165415018524</v>
+        <v>0.1735510304355543</v>
       </c>
       <c r="F23">
-        <v>0.983637882609699</v>
+        <v>0.7577892219160276</v>
       </c>
       <c r="G23">
-        <v>0.0008130101919317437</v>
+        <v>0.09759892417337568</v>
       </c>
       <c r="H23">
-        <v>0.0002609089585792201</v>
+        <v>5.731209100101609E-05</v>
       </c>
       <c r="I23">
-        <v>0.00163069814180794</v>
+        <v>0.001522222038913945</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4081506360582985</v>
+        <v>0.2845716402787453</v>
       </c>
       <c r="L23">
-        <v>0.1602297101306718</v>
+        <v>0.126706684751646</v>
       </c>
       <c r="M23">
-        <v>1.513969337716844</v>
+        <v>0.09481816898585649</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1563024011182677</v>
       </c>
       <c r="O23">
-        <v>0.5417615397632289</v>
+        <v>1.543997369372619</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.182998028455643</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5592398176060058</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.534560848526667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.154876258064064</v>
+        <v>1.138715956660775</v>
       </c>
       <c r="C24">
-        <v>0.2163801106882346</v>
+        <v>0.2549184230328194</v>
       </c>
       <c r="D24">
-        <v>0.2087316501944656</v>
+        <v>0.2296815683493776</v>
       </c>
       <c r="E24">
-        <v>0.1425268639130053</v>
+        <v>0.1498051292760252</v>
       </c>
       <c r="F24">
-        <v>0.9278074391663509</v>
+        <v>0.8112366913151092</v>
       </c>
       <c r="G24">
-        <v>0.0008175223448891423</v>
+        <v>0.01365935856060219</v>
       </c>
       <c r="H24">
-        <v>0.001382812555149382</v>
+        <v>0.0006186329188928585</v>
       </c>
       <c r="I24">
-        <v>0.002652969051904819</v>
+        <v>0.001688934865462066</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4079560927508439</v>
+        <v>0.3276600629618223</v>
       </c>
       <c r="L24">
-        <v>0.1428594306689064</v>
+        <v>0.1464252441570029</v>
       </c>
       <c r="M24">
-        <v>1.301099800920014</v>
+        <v>0.1046564606104177</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1441868578665435</v>
       </c>
       <c r="O24">
-        <v>0.4651908967677301</v>
+        <v>1.345877294820326</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.111270812890751</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4784156616567827</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.752084134564655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9497849981814852</v>
+        <v>0.941594722945382</v>
       </c>
       <c r="C25">
-        <v>0.1794642719143269</v>
+        <v>0.2091556215819139</v>
       </c>
       <c r="D25">
-        <v>0.1743932982776215</v>
+        <v>0.1911858728761331</v>
       </c>
       <c r="E25">
-        <v>0.1214829775457318</v>
+        <v>0.1286981109195793</v>
       </c>
       <c r="F25">
-        <v>0.8704391611463862</v>
+        <v>0.7708586930337944</v>
       </c>
       <c r="G25">
-        <v>0.0008225948492316648</v>
+        <v>0.01713844443230039</v>
       </c>
       <c r="H25">
-        <v>0.003706702211320301</v>
+        <v>0.002126374011667931</v>
       </c>
       <c r="I25">
-        <v>0.004795621849848608</v>
+        <v>0.002596317769515188</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4090830281264921</v>
+        <v>0.3356693460035771</v>
       </c>
       <c r="L25">
-        <v>0.1241020475372991</v>
+        <v>0.1557254062531008</v>
       </c>
       <c r="M25">
-        <v>1.072133497737127</v>
+        <v>0.1001805727053551</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.127307481346719</v>
       </c>
       <c r="O25">
-        <v>0.3829539681908756</v>
+        <v>1.11105894596642</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>2.042003762016179</v>
+        <v>0.3931957693703012</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.722484320989352</v>
       </c>
     </row>
   </sheetData>
